--- a/data/Excel/1.1.xlsx
+++ b/data/Excel/1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA778AD-598E-4D9E-9DEB-F652B37BAB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9967C882-C72A-42DE-B9DC-287A082035B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.1'!$A$1:$W$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1354,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF100B7D-2C73-4734-9D1C-BC94BC8D1420}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -1750,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885BD034-B637-451A-BE15-176A6266E10C}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -2155,6 +2164,10 @@
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
+      <c r="W15" s="25">
+        <f>COLUMN(W14)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="85" t="s">

--- a/data/Excel/1.1.xlsx
+++ b/data/Excel/1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9967C882-C72A-42DE-B9DC-287A082035B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF749B-F4AC-4524-86BD-36363D310D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="3" r:id="rId1"/>
@@ -923,6 +923,57 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -956,77 +1007,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1063,21 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1387,40 +1387,40 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -1436,236 +1436,236 @@
     </row>
     <row r="8" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="63"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="63"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="63"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="63"/>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="64"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="63"/>
-      <c r="B23" s="66" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="76"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="76"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="63"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="76"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="63"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="76"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="63"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="77"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="63"/>
-      <c r="B28" s="67" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="77"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="73"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="56"/>
+      <c r="B29" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="4"/>
@@ -1722,6 +1722,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="A22:A29"/>
@@ -1733,22 +1749,6 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1760,7 +1760,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -1797,41 +1797,41 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="27" t="s">
         <v>39</v>
       </c>
@@ -1853,14 +1853,14 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="27" t="s">
         <v>39</v>
       </c>
@@ -1881,14 +1881,14 @@
       <c r="W4" s="29"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="30" t="s">
         <v>42</v>
       </c>
@@ -1903,71 +1903,71 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="79" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="79" t="s">
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="79" t="s">
+      <c r="O7" s="84"/>
+      <c r="P7" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="79" t="s">
+      <c r="Q7" s="87"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="81"/>
-      <c r="U7" s="79" t="s">
+      <c r="T7" s="84"/>
+      <c r="U7" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="80"/>
-      <c r="W7" s="81"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="84"/>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="101"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="84"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="86"/>
     </row>
     <row r="9" spans="1:23" ht="319.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="101"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="32" t="s">
         <v>50</v>
       </c>
@@ -2164,67 +2164,63 @@
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="W15" s="25">
-        <f>COLUMN(W14)</f>
-        <v>23</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="86"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
     </row>
     <row r="18" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="44"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="80"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -2233,12 +2229,12 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="45"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
-      <c r="G20" s="95"/>
+      <c r="G20" s="100"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
       <c r="J20" s="45"/>
@@ -2247,12 +2243,12 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="45"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
-      <c r="G21" s="95"/>
+      <c r="G21" s="100"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
       <c r="J21" s="45"/>
@@ -2261,14 +2257,14 @@
     </row>
     <row r="22" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="45"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="45"/>
       <c r="F22" s="46"/>
-      <c r="G22" s="95"/>
+      <c r="G22" s="100"/>
       <c r="H22" s="46"/>
       <c r="I22" s="45"/>
       <c r="J22" s="46"/>
@@ -2277,9 +2273,9 @@
     </row>
     <row r="23" spans="1:12" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="45"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="45"/>
       <c r="F23" s="47" t="s">
         <v>73</v>
@@ -2299,16 +2295,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:M8"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="P7:R8"/>
-    <mergeCell ref="S7:T8"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="U7:W8"/>
     <mergeCell ref="A16:B16"/>
@@ -2322,6 +2308,16 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:M8"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="P7:R8"/>
+    <mergeCell ref="S7:T8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.1.xlsx
+++ b/data/Excel/1.1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF749B-F4AC-4524-86BD-36363D310D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667CD66-4BC5-436D-BAB6-23ABF5BEE660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="3" r:id="rId1"/>
     <sheet name="1.1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.1'!$A$1:$W$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.1'!$A$1:$W$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Сведения об обособленном подразделении</t>
   </si>
@@ -195,16 +195,10 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>"__"_____ 20__г.</t>
-  </si>
-  <si>
     <t>Дата окончания настящего отчетного периода</t>
   </si>
   <si>
     <t>Номер корректировки</t>
-  </si>
-  <si>
-    <t>_____</t>
   </si>
   <si>
     <t>№ п/п</t>
@@ -384,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -769,6 +763,30 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -782,7 +800,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -825,26 +843,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -856,12 +859,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -881,30 +878,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -917,167 +890,194 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1361,953 +1361,900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF100B7D-2C73-4734-9D1C-BC94BC8D1420}">
-  <dimension ref="A1:I34"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.68359375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.15625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.68359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.68359375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.89453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.47265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.3125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.47265625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.578125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D5" s="20" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="17"/>
+      <c r="E6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="72" t="s">
+    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="75" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="67" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="63" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="46"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="80"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="55" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B16" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="51"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="55"/>
-      <c r="B15" s="59" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="51"/>
+      <c r="B18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="51"/>
+      <c r="B19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="51"/>
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="51"/>
+      <c r="B21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="55"/>
-      <c r="B19" s="61" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="51"/>
+      <c r="B22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="55"/>
-      <c r="B20" s="61" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="51"/>
+      <c r="B23" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="65"/>
-      <c r="B21" s="53" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="52"/>
+      <c r="B24" s="59" t="s">
         <v>11</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="55"/>
-      <c r="B23" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="55"/>
-      <c r="B24" s="59" t="s">
-        <v>16</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="55"/>
-      <c r="B25" s="59" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="51"/>
+      <c r="B26" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="51"/>
+      <c r="B27" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="51"/>
+      <c r="B28" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="55"/>
-      <c r="B26" s="59" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="51"/>
+      <c r="B29" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="55"/>
-      <c r="B27" s="61" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="51"/>
+      <c r="B30" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="55"/>
-      <c r="B28" s="61" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="51"/>
+      <c r="B31" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="56"/>
-      <c r="B29" s="53" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="61"/>
+      <c r="B32" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="50" t="s">
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="8" t="s">
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="5" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
+  <mergeCells count="28">
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A31:I31"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F10:F14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885BD034-B637-451A-BE15-176A6266E10C}">
-  <dimension ref="A1:W23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="K19" sqref="D18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.83984375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.41796875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.15625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="8.15625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="6.83984375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.83984375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="6.83984375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.83984375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.15625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="12.15625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.15625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="9" style="25" customWidth="1"/>
-    <col min="13" max="13" width="11" style="25" customWidth="1"/>
-    <col min="14" max="14" width="12.68359375" style="25" customWidth="1"/>
-    <col min="15" max="15" width="15.83984375" style="25" customWidth="1"/>
-    <col min="16" max="16" width="13.26171875" style="25" customWidth="1"/>
-    <col min="17" max="17" width="5.83984375" style="25" customWidth="1"/>
-    <col min="18" max="18" width="8.578125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="16.15625" style="25" customWidth="1"/>
-    <col min="20" max="20" width="12.41796875" style="25" customWidth="1"/>
-    <col min="21" max="21" width="11.578125" style="25" customWidth="1"/>
-    <col min="22" max="22" width="9" style="25" customWidth="1"/>
-    <col min="23" max="23" width="9.15625" style="25" customWidth="1"/>
-    <col min="24" max="16384" width="8.83984375" style="25"/>
+    <col min="1" max="5" width="10.578125" style="19" customWidth="1"/>
+    <col min="6" max="23" width="10.578125" style="20" customWidth="1"/>
+    <col min="24" max="16384" width="8.83984375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-    </row>
-    <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="80" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="27" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="80" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="80" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="30" t="s">
+      <c r="B7" s="66" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="81" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="83" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="83" t="s">
+      <c r="Q7" s="67"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="83" t="s">
+      <c r="T7" s="68"/>
+      <c r="U7" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="83" t="s">
+      <c r="V7" s="67"/>
+      <c r="W7" s="68"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="79"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="71"/>
+    </row>
+    <row r="9" spans="1:23" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="79"/>
+      <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="84"/>
-      <c r="U7" s="83" t="s">
+      <c r="C9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="87"/>
-      <c r="W7" s="84"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="82"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="86"/>
-    </row>
-    <row r="9" spans="1:23" ht="319.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="82"/>
-      <c r="B9" s="32" t="s">
+      <c r="D9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="E9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="F9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="G9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="H9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="I9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="J9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="K9" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="L9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="M9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="N9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="O9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="P9" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="Q9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="T9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R9" s="33" t="s">
+      <c r="U9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="33" t="s">
+      <c r="W9" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="35">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28">
+        <v>2</v>
+      </c>
+      <c r="C10" s="28">
+        <v>3</v>
+      </c>
+      <c r="D10" s="28">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28">
+        <v>5</v>
+      </c>
+      <c r="F10" s="28">
+        <v>6</v>
+      </c>
+      <c r="G10" s="28">
+        <v>7</v>
+      </c>
+      <c r="H10" s="28">
+        <v>8</v>
+      </c>
+      <c r="I10" s="28">
+        <v>9</v>
+      </c>
+      <c r="J10" s="28">
+        <v>10</v>
+      </c>
+      <c r="K10" s="28">
+        <v>11</v>
+      </c>
+      <c r="L10" s="28">
+        <v>12</v>
+      </c>
+      <c r="M10" s="28">
+        <v>13</v>
+      </c>
+      <c r="N10" s="28">
+        <v>14</v>
+      </c>
+      <c r="O10" s="28">
+        <v>15</v>
+      </c>
+      <c r="P10" s="28">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>17</v>
+      </c>
+      <c r="R10" s="28">
+        <v>18</v>
+      </c>
+      <c r="S10" s="28">
+        <v>19</v>
+      </c>
+      <c r="T10" s="28">
+        <v>20</v>
+      </c>
+      <c r="U10" s="28">
+        <v>21</v>
+      </c>
+      <c r="V10" s="28">
+        <v>22</v>
+      </c>
+      <c r="W10" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="33" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="34">
-        <v>1</v>
-      </c>
-      <c r="B10" s="35">
-        <v>2</v>
-      </c>
-      <c r="C10" s="35">
-        <v>3</v>
-      </c>
-      <c r="D10" s="35">
-        <v>4</v>
-      </c>
-      <c r="E10" s="35">
-        <v>5</v>
-      </c>
-      <c r="F10" s="35">
-        <v>6</v>
-      </c>
-      <c r="G10" s="35">
-        <v>7</v>
-      </c>
-      <c r="H10" s="35">
-        <v>8</v>
-      </c>
-      <c r="I10" s="35">
-        <v>9</v>
-      </c>
-      <c r="J10" s="35">
-        <v>10</v>
-      </c>
-      <c r="K10" s="35">
-        <v>11</v>
-      </c>
-      <c r="L10" s="35">
-        <v>12</v>
-      </c>
-      <c r="M10" s="35">
-        <v>13</v>
-      </c>
-      <c r="N10" s="35">
-        <v>14</v>
-      </c>
-      <c r="O10" s="35">
-        <v>15</v>
-      </c>
-      <c r="P10" s="35">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="35">
-        <v>17</v>
-      </c>
-      <c r="R10" s="35">
-        <v>18</v>
-      </c>
-      <c r="S10" s="35">
-        <v>19</v>
-      </c>
-      <c r="T10" s="35">
-        <v>20</v>
-      </c>
-      <c r="U10" s="35">
-        <v>21</v>
-      </c>
-      <c r="V10" s="35">
-        <v>22</v>
-      </c>
-      <c r="W10" s="35">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38"/>
-    </row>
-    <row r="12" spans="1:23" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="42"/>
+      <c r="B14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
     </row>
     <row r="15" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="43" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="44"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="45"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="45"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="45"/>
-      <c r="B22" s="101" t="s">
+      <c r="E19" s="37"/>
+      <c r="F19" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="45"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="47" t="s">
+      <c r="G19" s="91"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49" t="s">
+      <c r="J19" s="32"/>
+      <c r="K19" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="49" t="s">
-        <v>76</v>
-      </c>
+      <c r="L19" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="U7:W8"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2318,8 +2265,16 @@
     <mergeCell ref="N7:O8"/>
     <mergeCell ref="P7:R8"/>
     <mergeCell ref="S7:T8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="U7:W8"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="28" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Excel/1.1.xlsx
+++ b/data/Excel/1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667CD66-4BC5-436D-BAB6-23ABF5BEE660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0E8AF-5423-4516-B6AA-9805C2A105B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="3" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <t>(Телефон)</t>
   </si>
   <si>
-    <t>(Электронная почта)</t>
+    <t xml:space="preserve">(Электронная почта)	</t>
   </si>
 </sst>
 </file>
@@ -905,6 +905,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -914,30 +935,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -989,95 +1010,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1366,7 +1366,7 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -1388,43 +1388,43 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="34"/>
@@ -1442,259 +1442,259 @@
       <c r="E6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="83"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="81" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="48" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="81"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="46"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="81"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="80"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="51"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="51"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="51"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="52"/>
-      <c r="B24" s="59" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="51"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="64"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="51"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="64"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="51"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="64"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="64"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="51"/>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="65"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="51"/>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="65"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="61"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="4"/>
@@ -1772,13 +1772,13 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F10:F14"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="F10:F14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1792,8 +1792,8 @@
   </sheetPr>
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K19" sqref="D18:L19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -1809,41 +1809,41 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="85"/>
       <c r="H3" s="85"/>
       <c r="I3" s="22"/>
@@ -1863,14 +1863,14 @@
       <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="86"/>
       <c r="H4" s="86"/>
       <c r="I4" s="22"/>
@@ -1890,14 +1890,14 @@
       <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
     </row>
@@ -1911,71 +1911,71 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="66" t="s">
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="66" t="s">
+      <c r="O7" s="80"/>
+      <c r="P7" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="66" t="s">
+      <c r="Q7" s="83"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="80"/>
+      <c r="U7" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="67"/>
-      <c r="W7" s="68"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="80"/>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="79"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="71"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="82"/>
     </row>
     <row r="9" spans="1:23" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="79"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
@@ -2149,44 +2149,44 @@
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
     </row>
     <row r="15" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="92"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2198,9 +2198,9 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="30"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="36"/>
@@ -2211,20 +2211,20 @@
       <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="31"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="89"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="31"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="30"/>
@@ -2234,19 +2234,19 @@
         <v>71</v>
       </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="32"/>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="90"/>
+      <c r="L19" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2255,6 +2255,10 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2269,10 +2273,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="U7:W8"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="1000" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.1.xlsx
+++ b/data/Excel/1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0E8AF-5423-4516-B6AA-9805C2A105B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB1511-ACE0-4AA2-B73E-0E18B2483F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="3" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>Сведения из паспорта (сертификата) на закрытый радионуклидный источник</t>
   </si>
   <si>
-    <t>Право собственности на ИОУ</t>
-  </si>
-  <si>
     <t>Документ</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t xml:space="preserve">(Электронная почта)	</t>
+  </si>
+  <si>
+    <t>Право собственности на ЗРИ</t>
   </si>
 </sst>
 </file>
@@ -917,6 +917,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -959,59 +1013,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1043,9 +1070,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1054,30 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1388,43 +1388,43 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="34"/>
@@ -1449,52 +1449,52 @@
     </row>
     <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="48" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="66" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="48"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="49"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="56" t="s">
@@ -1507,194 +1507,194 @@
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="58"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="58"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="58"/>
-      <c r="B19" s="61" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="58"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="58"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="59"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="58"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="71"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="58"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="71"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="71"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="58"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="71"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="58"/>
-      <c r="B30" s="62" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="58"/>
-      <c r="B31" s="62" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="72"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="68"/>
-      <c r="B32" s="73" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="4"/>
@@ -1751,6 +1751,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1762,23 +1779,6 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1792,8 +1792,8 @@
   </sheetPr>
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -1809,43 +1809,43 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -1863,16 +1863,16 @@
       <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -1890,16 +1890,16 @@
       <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="24"/>
@@ -1911,136 +1911,136 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="79" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="79" t="s">
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="89"/>
+      <c r="P7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="79" t="s">
+      <c r="Q7" s="92"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="79" t="s">
+      <c r="T7" s="89"/>
+      <c r="U7" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="80"/>
-      <c r="U7" s="79" t="s">
+      <c r="V7" s="92"/>
+      <c r="W7" s="89"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="87"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="91"/>
+    </row>
+    <row r="9" spans="1:23" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="87"/>
+      <c r="B9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="83"/>
-      <c r="W7" s="80"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="78"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="82"/>
-    </row>
-    <row r="9" spans="1:23" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="78"/>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="J9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="K9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="L9" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="M9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="N9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="O9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="P9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="Q9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" s="26" t="s">
+      <c r="T9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="U9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="26" t="s">
-        <v>65</v>
-      </c>
       <c r="V9" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -2141,7 +2141,7 @@
     </row>
     <row r="13" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -2150,43 +2150,43 @@
     </row>
     <row r="14" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="41"/>
       <c r="B15" s="39"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2198,9 +2198,9 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="30"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="36"/>
@@ -2211,54 +2211,45 @@
       <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
+      <c r="A18" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="31"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="40"/>
       <c r="I18" s="31"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="30"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="74"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="32"/>
+      <c r="K19" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="95"/>
+      <c r="L19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2273,8 +2264,17 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="U7:W8"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Excel/1.1.xlsx
+++ b/data/Excel/1.1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB1511-ACE0-4AA2-B73E-0E18B2483F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="3" r:id="rId1"/>
@@ -306,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -635,19 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -790,6 +776,69 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -800,7 +849,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -825,24 +874,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -866,7 +897,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -878,13 +909,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -905,7 +936,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -914,8 +945,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -930,9 +1021,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -944,84 +1032,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,7 +1098,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1040,50 +1107,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{B5BE5C71-2102-4ADA-89D1-EA43F7263FF4}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{90954E64-E360-4652-B0B3-3EB0B8C46809}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,343 +1442,397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF100B7D-2C73-4734-9D1C-BC94BC8D1420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.89453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.47265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.3125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.47265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10.578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" s="18" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="73" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="73" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="17"/>
-      <c r="E6" s="33" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="11"/>
+      <c r="E6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="66" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="60" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="66"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="60" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="66"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="66"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="67"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="56" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="47" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="89"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="47"/>
-      <c r="B17" s="51" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="47"/>
-      <c r="B18" s="51" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="47"/>
-      <c r="B19" s="51" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="47"/>
-      <c r="B20" s="51" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="47"/>
-      <c r="B21" s="51" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="47"/>
-      <c r="B22" s="53" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="90"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="47"/>
-      <c r="B23" s="53" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="58"/>
-      <c r="B24" s="45" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="90"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="46" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="92"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="47"/>
-      <c r="B26" s="51" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="47"/>
-      <c r="B27" s="51" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="91"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="47"/>
-      <c r="B28" s="51" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="91"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="47"/>
-      <c r="B29" s="51" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="91"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="47"/>
-      <c r="B30" s="53" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="91"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="47"/>
-      <c r="B31" s="53" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="90"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="48"/>
-      <c r="B32" s="55" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="90"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="92"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="42" t="s">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
         <v>9</v>
@@ -1723,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1872,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
@@ -1750,24 +1886,20 @@
       <c r="I37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+  <mergeCells count="46">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1779,477 +1911,508 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885BD034-B637-451A-BE15-176A6266E10C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="N7" sqref="N7:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="10.578125" style="19" customWidth="1"/>
-    <col min="6" max="23" width="10.578125" style="20" customWidth="1"/>
-    <col min="24" max="16384" width="8.83984375" style="20"/>
+    <col min="1" max="5" width="10.5703125" style="13" customWidth="1"/>
+    <col min="6" max="23" width="10.5703125" style="14" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="W1" s="21" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="83" t="s">
+    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-    </row>
-    <row r="3" spans="1:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="85" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="85" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="85" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="86" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="88" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="88" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="89"/>
-      <c r="P7" s="88" t="s">
+      <c r="O7" s="73"/>
+      <c r="P7" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="88" t="s">
+      <c r="Q7" s="76"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="89"/>
-      <c r="U7" s="88" t="s">
+      <c r="T7" s="73"/>
+      <c r="U7" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="92"/>
-      <c r="W7" s="89"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="91"/>
-    </row>
-    <row r="9" spans="1:23" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="87"/>
-      <c r="B9" s="25" t="s">
+      <c r="V7" s="76"/>
+      <c r="W7" s="73"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="75"/>
+    </row>
+    <row r="9" spans="1:23" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71"/>
+      <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="T9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="U9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="W9" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="35">
+    <row r="10" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>1</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="22">
         <v>2</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="22">
         <v>3</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="22">
         <v>4</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="22">
         <v>5</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="22">
         <v>6</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="22">
         <v>7</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="22">
         <v>8</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="22">
         <v>9</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="22">
         <v>10</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="22">
         <v>11</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="22">
         <v>12</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="22">
         <v>13</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="22">
         <v>14</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="22">
         <v>15</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="22">
         <v>16</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="22">
         <v>17</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="22">
         <v>18</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="22">
         <v>19</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="22">
         <v>20</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="22">
         <v>21</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="22">
         <v>22</v>
       </c>
-      <c r="W10" s="28">
+      <c r="W10" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="20" t="s">
+    <row r="11" spans="1:23" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="41" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="41"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="29"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="30"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="82" t="s">
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-    </row>
-    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="30"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="32" t="s">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+    </row>
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="74" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="74"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
+      <c r="G19" s="81"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="76" t="s">
+      <c r="J19" s="26"/>
+      <c r="K19" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="76"/>
+      <c r="L19" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2264,17 +2427,8 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="U7:W8"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Excel/1.1.xlsx
+++ b/data/Excel/1.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2163F1A6-8237-4529-8A9A-310B47E6EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="3" r:id="rId1"/>
@@ -194,9 +195,6 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>Дата окончания настящего отчетного периода</t>
-  </si>
-  <si>
     <t>Номер корректировки</t>
   </si>
   <si>
@@ -300,12 +298,15 @@
   </si>
   <si>
     <t>Право собственности на ЗРИ</t>
+  </si>
+  <si>
+    <t>Дата окончания настоящего отчетного периода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -849,7 +850,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -921,125 +922,194 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1071,9 +1141,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1082,90 +1149,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1442,397 +1431,397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.54296875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I1" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="42" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="75" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="75"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="89"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48"/>
+      <c r="B17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="54" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="48"/>
+      <c r="B18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="90"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48"/>
+      <c r="B19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="48"/>
+      <c r="B20" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="48"/>
+      <c r="B21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="90"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="55" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="48"/>
+      <c r="B22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="90"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="55" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="48"/>
+      <c r="B23" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="59" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="66"/>
+      <c r="B24" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="92"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="54" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="48"/>
+      <c r="B26" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="91"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="54" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="48"/>
+      <c r="B27" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="91"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="54" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="48"/>
+      <c r="B28" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="91"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="62"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="48"/>
+      <c r="B29" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="91"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="55" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="48"/>
+      <c r="B30" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="90"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="55" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="48"/>
+      <c r="B31" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="90"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="66" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="49"/>
+      <c r="B32" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="92"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
         <v>9</v>
@@ -1859,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>1</v>
       </c>
@@ -1872,7 +1861,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
@@ -1887,19 +1876,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1916,90 +1909,86 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="120" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="10.5703125" style="13" customWidth="1"/>
-    <col min="6" max="23" width="10.5703125" style="14" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="5" width="10.54296875" style="13" customWidth="1"/>
+    <col min="6" max="23" width="10.54296875" style="14" customWidth="1"/>
+    <col min="24" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="W1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-    </row>
-    <row r="3" spans="1:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -2016,17 +2005,17 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -2043,19 +2032,19 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+    </row>
+    <row r="6" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2064,141 +2053,141 @@
       <c r="F6" s="18"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="72" t="s">
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="96"/>
+      <c r="P7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="73"/>
-      <c r="P7" s="72" t="s">
+      <c r="Q7" s="99"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="72" t="s">
+      <c r="T7" s="96"/>
+      <c r="U7" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="73"/>
-      <c r="U7" s="72" t="s">
+      <c r="V7" s="99"/>
+      <c r="W7" s="96"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="94"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="98"/>
+    </row>
+    <row r="9" spans="1:23" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="94"/>
+      <c r="B9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="76"/>
-      <c r="W7" s="73"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="75"/>
-    </row>
-    <row r="9" spans="1:23" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="T9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="U9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="V9" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
       <c r="B10" s="22">
@@ -2268,7 +2257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2293,54 +2282,54 @@
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
     </row>
-    <row r="13" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -2350,69 +2339,60 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="30"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88" t="s">
+    <row r="18" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-    </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="26" t="s">
+      <c r="E19" s="29"/>
+      <c r="F19" s="81" t="s">
         <v>70</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="81" t="s">
-        <v>71</v>
       </c>
       <c r="G19" s="81"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="82"/>
+      <c r="L19" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2427,6 +2407,15 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="U7:W8"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
